--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW25.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CopperA-HW25.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="CopperA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1087,13 +1087,13 @@
         <v>0.9939914371923674</v>
       </c>
       <c r="J13">
-        <v>0.995164410881373</v>
+        <v>0.9951644108813726</v>
       </c>
       <c r="K13">
         <v>0.9940792992644015</v>
       </c>
       <c r="L13">
-        <v>0.9931585915269119</v>
+        <v>0.993158591526912</v>
       </c>
       <c r="M13">
         <v>0.9940818321432727</v>
@@ -1202,10 +1202,60 @@
         <v>1.007858974780987</v>
       </c>
       <c r="O15">
-        <v>0.9963476568060899</v>
+        <v>0.9963476568060901</v>
       </c>
       <c r="P15">
         <v>0.9963986616439193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.038744308907424</v>
+      </c>
+      <c r="D16">
+        <v>0.9183273690739626</v>
+      </c>
+      <c r="E16">
+        <v>1.030356904684638</v>
+      </c>
+      <c r="F16">
+        <v>0.9715609114691947</v>
+      </c>
+      <c r="G16">
+        <v>1.038744308907424</v>
+      </c>
+      <c r="H16">
+        <v>0.9183273690739626</v>
+      </c>
+      <c r="I16">
+        <v>1.028838980602037</v>
+      </c>
+      <c r="J16">
+        <v>0.981524793711655</v>
+      </c>
+      <c r="K16">
+        <v>1.007886970994227</v>
+      </c>
+      <c r="L16">
+        <v>0.9385535419865516</v>
+      </c>
+      <c r="M16">
+        <v>1.038744308907424</v>
+      </c>
+      <c r="N16">
+        <v>0.9743421368793004</v>
+      </c>
+      <c r="O16">
+        <v>0.9897473735338049</v>
+      </c>
+      <c r="P16">
+        <v>0.9894742226787114</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.038744308907424</v>

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW25.xlsx
@@ -1090,13 +1090,13 @@
         <v>0.9939914371923674</v>
       </c>
       <c r="J13">
-        <v>0.9951644108813726</v>
+        <v>0.995164410881373</v>
       </c>
       <c r="K13">
         <v>0.9940792992644015</v>
       </c>
       <c r="L13">
-        <v>0.993158591526912</v>
+        <v>0.9931585915269119</v>
       </c>
       <c r="M13">
         <v>0.9940818321432727</v>
@@ -1205,7 +1205,7 @@
         <v>1.007858974780987</v>
       </c>
       <c r="O15">
-        <v>0.9963476568060901</v>
+        <v>0.9963476568060899</v>
       </c>
       <c r="P15">
         <v>0.9963986616439193</v>

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.214932</v>
+        <v>1.038744308907424</v>
       </c>
       <c r="D10">
-        <v>0.6329679999999995</v>
+        <v>0.9183273690739626</v>
       </c>
       <c r="E10">
-        <v>1.083404</v>
+        <v>1.030356904684638</v>
       </c>
       <c r="F10">
-        <v>0.9198120000000004</v>
+        <v>0.9715609114691947</v>
       </c>
       <c r="G10">
-        <v>1.214932</v>
+        <v>1.038744308907424</v>
       </c>
       <c r="H10">
-        <v>0.6329679999999995</v>
+        <v>0.9183273690739626</v>
       </c>
       <c r="I10">
-        <v>1.113280000000003</v>
+        <v>1.028838980602037</v>
       </c>
       <c r="J10">
-        <v>0.9255720000000017</v>
+        <v>0.981524793711655</v>
       </c>
       <c r="K10">
-        <v>1.080879999999997</v>
+        <v>1.007886970994227</v>
       </c>
       <c r="L10">
-        <v>0.7792079999999997</v>
+        <v>0.9385535419865516</v>
       </c>
       <c r="M10">
-        <v>1.215348000000002</v>
+        <v>1.038744308907424</v>
       </c>
       <c r="N10">
-        <v>0.8581859999999999</v>
+        <v>0.9743421368793004</v>
       </c>
       <c r="O10">
-        <v>0.9627790000000001</v>
+        <v>0.9897473735338049</v>
       </c>
       <c r="P10">
-        <v>0.9687570000000002</v>
+        <v>0.9894742226787114</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.3</v>
+        <v>1.122270634628128</v>
       </c>
       <c r="D11">
-        <v>0.66</v>
+        <v>0.6037098106166887</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>1.174968010584092</v>
       </c>
       <c r="F11">
-        <v>0.93</v>
+        <v>0.9083047725391604</v>
       </c>
       <c r="G11">
-        <v>1.3</v>
+        <v>1.122270634628128</v>
       </c>
       <c r="H11">
-        <v>0.66</v>
+        <v>0.6037098106166887</v>
       </c>
       <c r="I11">
-        <v>1.0809625</v>
+        <v>1.149697570593438</v>
       </c>
       <c r="J11">
-        <v>0.89</v>
+        <v>0.9634065092288461</v>
       </c>
       <c r="K11">
-        <v>1.115974999999998</v>
+        <v>1.049001487012982</v>
       </c>
       <c r="L11">
-        <v>0.8093124999999993</v>
+        <v>0.7471014611753369</v>
       </c>
       <c r="M11">
-        <v>1.3</v>
+        <v>1.122843606855655</v>
       </c>
       <c r="N11">
-        <v>0.8300000000000001</v>
+        <v>0.8893389106003904</v>
       </c>
       <c r="O11">
-        <v>0.9725</v>
+        <v>0.9523133070920174</v>
       </c>
       <c r="P11">
-        <v>0.9732812499999997</v>
+        <v>0.964807532047334</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.170613354495998</v>
+        <v>1.122496269891132</v>
       </c>
       <c r="D12">
-        <v>0.7996407009279987</v>
+        <v>0.6038607172078755</v>
       </c>
       <c r="E12">
-        <v>0.9980243648512015</v>
+        <v>1.174645707861191</v>
       </c>
       <c r="F12">
-        <v>0.9572689466368016</v>
+        <v>0.9083788971790877</v>
       </c>
       <c r="G12">
-        <v>1.170613354495998</v>
+        <v>1.122496269891132</v>
       </c>
       <c r="H12">
-        <v>0.7996407009279987</v>
+        <v>0.6038607172078755</v>
       </c>
       <c r="I12">
-        <v>1.045232457113597</v>
+        <v>1.149610352880861</v>
       </c>
       <c r="J12">
-        <v>0.9341890803712021</v>
+        <v>0.9633572317440933</v>
       </c>
       <c r="K12">
-        <v>1.064747163443193</v>
+        <v>1.049112769264316</v>
       </c>
       <c r="L12">
-        <v>0.8857089672192003</v>
+        <v>0.747094450982202</v>
       </c>
       <c r="M12">
-        <v>1.170624105267198</v>
+        <v>1.12307343699413</v>
       </c>
       <c r="N12">
-        <v>0.8988325328896001</v>
+        <v>0.8892532125345332</v>
       </c>
       <c r="O12">
-        <v>0.9813868417280001</v>
+        <v>0.9523453980348217</v>
       </c>
       <c r="P12">
-        <v>0.9819281293823992</v>
+        <v>0.9648195496263448</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9940391395698324</v>
+        <v>1.122137254422704</v>
       </c>
       <c r="D13">
-        <v>0.993949639068021</v>
+        <v>0.603695939250628</v>
       </c>
       <c r="E13">
-        <v>0.9943979510264693</v>
+        <v>1.175071141235051</v>
       </c>
       <c r="F13">
-        <v>0.993737914763454</v>
+        <v>0.9083178956199833</v>
       </c>
       <c r="G13">
-        <v>0.9940391395698324</v>
+        <v>1.122137254422704</v>
       </c>
       <c r="H13">
-        <v>0.993949639068021</v>
+        <v>0.603695939250628</v>
       </c>
       <c r="I13">
-        <v>0.9939914371923674</v>
+        <v>1.149752908876161</v>
       </c>
       <c r="J13">
-        <v>0.995164410881373</v>
+        <v>0.963470783825203</v>
       </c>
       <c r="K13">
-        <v>0.9940792992644015</v>
+        <v>1.048953763357867</v>
       </c>
       <c r="L13">
-        <v>0.9931585915269119</v>
+        <v>0.7469951423105304</v>
       </c>
       <c r="M13">
-        <v>0.9940818321432727</v>
+        <v>1.122714160319457</v>
       </c>
       <c r="N13">
-        <v>0.9941737950472451</v>
+        <v>0.8893835402428394</v>
       </c>
       <c r="O13">
-        <v>0.9940311611069441</v>
+        <v>0.9523055576320915</v>
       </c>
       <c r="P13">
-        <v>0.9940647979116037</v>
+        <v>0.9647993536122659</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9997851308671505</v>
+        <v>1.214932</v>
       </c>
       <c r="D14">
-        <v>1.014956549687918</v>
+        <v>0.6329679999999995</v>
       </c>
       <c r="E14">
-        <v>0.9782299330050362</v>
+        <v>1.083404</v>
       </c>
       <c r="F14">
-        <v>0.9972592705738303</v>
+        <v>0.9198120000000004</v>
       </c>
       <c r="G14">
-        <v>0.9997851308671505</v>
+        <v>1.214932</v>
       </c>
       <c r="H14">
-        <v>1.014956549687918</v>
+        <v>0.6329679999999995</v>
       </c>
       <c r="I14">
-        <v>0.9847985263926713</v>
+        <v>1.113280000000003</v>
       </c>
       <c r="J14">
-        <v>0.9918459484190866</v>
+        <v>0.9255720000000017</v>
       </c>
       <c r="K14">
-        <v>0.9952113044551482</v>
+        <v>1.080879999999997</v>
       </c>
       <c r="L14">
-        <v>1.003641463572626</v>
+        <v>0.7792079999999997</v>
       </c>
       <c r="M14">
-        <v>0.9997851308671505</v>
+        <v>1.215348000000002</v>
       </c>
       <c r="N14">
-        <v>0.9965932413464769</v>
+        <v>0.8581859999999999</v>
       </c>
       <c r="O14">
-        <v>0.9975577210334836</v>
+        <v>0.9627790000000001</v>
       </c>
       <c r="P14">
-        <v>0.9957160158716833</v>
+        <v>0.9687570000000002</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9666140924715699</v>
+        <v>1.3</v>
       </c>
       <c r="D15">
-        <v>1.030738206699461</v>
+        <v>0.66</v>
       </c>
       <c r="E15">
-        <v>0.9849797428625129</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.003058585190816</v>
+        <v>0.93</v>
       </c>
       <c r="G15">
-        <v>0.9666140924715699</v>
+        <v>1.3</v>
       </c>
       <c r="H15">
-        <v>1.030738206699461</v>
+        <v>0.66</v>
       </c>
       <c r="I15">
-        <v>0.979094158769794</v>
+        <v>1.0809625</v>
       </c>
       <c r="J15">
-        <v>1.002415833399573</v>
+        <v>0.89</v>
       </c>
       <c r="K15">
-        <v>0.9852438911320724</v>
+        <v>1.115974999999998</v>
       </c>
       <c r="L15">
-        <v>1.019044782625554</v>
+        <v>0.8093124999999993</v>
       </c>
       <c r="M15">
-        <v>0.9666559414446625</v>
+        <v>1.3</v>
       </c>
       <c r="N15">
-        <v>1.007858974780987</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="O15">
-        <v>0.9963476568060899</v>
+        <v>0.9725</v>
       </c>
       <c r="P15">
-        <v>0.9963986616439193</v>
+        <v>0.9732812499999997</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.038744308907424</v>
+        <v>1.170613354495998</v>
       </c>
       <c r="D16">
-        <v>0.9183273690739626</v>
+        <v>0.7996407009279987</v>
       </c>
       <c r="E16">
-        <v>1.030356904684638</v>
+        <v>0.9980243648512015</v>
       </c>
       <c r="F16">
-        <v>0.9715609114691947</v>
+        <v>0.9572689466368016</v>
       </c>
       <c r="G16">
-        <v>1.038744308907424</v>
+        <v>1.170613354495998</v>
       </c>
       <c r="H16">
-        <v>0.9183273690739626</v>
+        <v>0.7996407009279987</v>
       </c>
       <c r="I16">
-        <v>1.028838980602037</v>
+        <v>1.045232457113597</v>
       </c>
       <c r="J16">
-        <v>0.981524793711655</v>
+        <v>0.9341890803712021</v>
       </c>
       <c r="K16">
-        <v>1.007886970994227</v>
+        <v>1.064747163443193</v>
       </c>
       <c r="L16">
-        <v>0.9385535419865516</v>
+        <v>0.8857089672192003</v>
       </c>
       <c r="M16">
-        <v>1.038744308907424</v>
+        <v>1.170624105267198</v>
       </c>
       <c r="N16">
-        <v>0.9743421368793004</v>
+        <v>0.8988325328896001</v>
       </c>
       <c r="O16">
-        <v>0.9897473735338049</v>
+        <v>0.9813868417280001</v>
       </c>
       <c r="P16">
-        <v>0.9894742226787114</v>
+        <v>0.9819281293823992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9940391395698324</v>
+      </c>
+      <c r="D17">
+        <v>0.993949639068021</v>
+      </c>
+      <c r="E17">
+        <v>0.9943979510264693</v>
+      </c>
+      <c r="F17">
+        <v>0.993737914763454</v>
+      </c>
+      <c r="G17">
+        <v>0.9940391395698324</v>
+      </c>
+      <c r="H17">
+        <v>0.993949639068021</v>
+      </c>
+      <c r="I17">
+        <v>0.9939914371923674</v>
+      </c>
+      <c r="J17">
+        <v>0.9951644108813726</v>
+      </c>
+      <c r="K17">
+        <v>0.9940792992644015</v>
+      </c>
+      <c r="L17">
+        <v>0.993158591526912</v>
+      </c>
+      <c r="M17">
+        <v>0.9940818321432727</v>
+      </c>
+      <c r="N17">
+        <v>0.9941737950472451</v>
+      </c>
+      <c r="O17">
+        <v>0.9940311611069441</v>
+      </c>
+      <c r="P17">
+        <v>0.9940647979116037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9997851308671505</v>
+      </c>
+      <c r="D18">
+        <v>1.014956549687918</v>
+      </c>
+      <c r="E18">
+        <v>0.9782299330050362</v>
+      </c>
+      <c r="F18">
+        <v>0.9972592705738303</v>
+      </c>
+      <c r="G18">
+        <v>0.9997851308671505</v>
+      </c>
+      <c r="H18">
+        <v>1.014956549687918</v>
+      </c>
+      <c r="I18">
+        <v>0.9847985263926713</v>
+      </c>
+      <c r="J18">
+        <v>0.9918459484190866</v>
+      </c>
+      <c r="K18">
+        <v>0.9952113044551482</v>
+      </c>
+      <c r="L18">
+        <v>1.003641463572626</v>
+      </c>
+      <c r="M18">
+        <v>0.9997851308671505</v>
+      </c>
+      <c r="N18">
+        <v>0.9965932413464769</v>
+      </c>
+      <c r="O18">
+        <v>0.9975577210334836</v>
+      </c>
+      <c r="P18">
+        <v>0.9957160158716833</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9666140924715699</v>
+      </c>
+      <c r="D19">
+        <v>1.030738206699461</v>
+      </c>
+      <c r="E19">
+        <v>0.9849797428625129</v>
+      </c>
+      <c r="F19">
+        <v>1.003058585190816</v>
+      </c>
+      <c r="G19">
+        <v>0.9666140924715699</v>
+      </c>
+      <c r="H19">
+        <v>1.030738206699461</v>
+      </c>
+      <c r="I19">
+        <v>0.979094158769794</v>
+      </c>
+      <c r="J19">
+        <v>1.002415833399573</v>
+      </c>
+      <c r="K19">
+        <v>0.9852438911320724</v>
+      </c>
+      <c r="L19">
+        <v>1.019044782625554</v>
+      </c>
+      <c r="M19">
+        <v>0.9666559414446625</v>
+      </c>
+      <c r="N19">
+        <v>1.007858974780987</v>
+      </c>
+      <c r="O19">
+        <v>0.9963476568060901</v>
+      </c>
+      <c r="P19">
+        <v>0.9963986616439193</v>
       </c>
     </row>
   </sheetData>
